--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1049,6 +1058,29 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920031</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
   </si>
 </sst>
 </file>
@@ -492,22 +483,22 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>74.36</v>
+        <v>77.5</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -521,19 +512,19 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>84.09</v>
+        <v>95.45</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -599,19 +590,19 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -625,16 +616,16 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>8.6</v>
@@ -690,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -719,7 +710,7 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -788,7 +779,7 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -811,7 +802,7 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -870,22 +861,22 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>74.36</v>
+        <v>77.5</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -899,19 +890,19 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G3">
-        <v>84.09</v>
+        <v>95.45</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -977,19 +968,19 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1003,16 +994,16 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>8.6</v>
@@ -1025,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1058,29 +1049,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>21330051920031</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
@@ -538,16 +538,16 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>86.05</v>
+        <v>88.37</v>
       </c>
       <c r="H4">
         <v>8.6</v>
@@ -733,7 +733,7 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4">
-        <v>86.05</v>
+        <v>88.37</v>
       </c>
       <c r="H4">
         <v>8.6</v>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20211.xlsx
@@ -486,10 +486,10 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>31</v>
@@ -498,7 +498,7 @@
         <v>77.5</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -538,10 +538,10 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>38</v>
@@ -550,7 +550,7 @@
         <v>88.37</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -687,7 +687,7 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>31</v>
@@ -876,7 +876,7 @@
         <v>77.5</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -916,10 +916,10 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>38</v>
@@ -928,7 +928,7 @@
         <v>88.37</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
